--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_trainning_pycharm\Automate_the_Routine\Ultimate_Automation\True_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563065D9-23C8-4069-A21E-D2A874F7D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEA84C-968B-499F-88AA-705F583419E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="210" windowWidth="28740" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>站名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,7 +181,19 @@
     <t>速删8</t>
   </si>
   <si>
-    <t>900/5</t>
+    <t>佳和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25426f760f000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,29 +201,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>900/6</t>
-  </si>
-  <si>
-    <t>800/6</t>
-  </si>
-  <si>
-    <t>900/7</t>
-  </si>
-  <si>
-    <t>800/7</t>
-  </si>
-  <si>
-    <t>900/8</t>
-  </si>
-  <si>
-    <t>800/8</t>
-  </si>
-  <si>
-    <t>佳和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25426f760f000000</t>
+    <t>400/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C95C9B-7938-4892-A3E0-60744409E85E}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -743,7 +745,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>30</v>
@@ -786,7 +788,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
@@ -801,13 +803,13 @@
         <v>111</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J8" s="4">
         <v>38002</v>
@@ -827,13 +829,13 @@
         <v>222</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J9" s="4">
         <v>38003</v>
@@ -853,13 +855,13 @@
         <v>333</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J10" s="4">
         <v>38004</v>
@@ -885,7 +887,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J11" s="4">
         <v>38005</v>
@@ -905,13 +907,13 @@
         <v>555</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J12" s="4">
         <v>38006</v>
@@ -931,13 +933,13 @@
         <v>666</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J13" s="4">
         <v>38007</v>
@@ -956,14 +958,14 @@
       <c r="F14" s="4">
         <v>777</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J14" s="4">
         <v>38801</v>
@@ -983,7 +985,7 @@
         <v>888</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
@@ -1003,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_trainning_pycharm\Automate_the_Routine\Ultimate_Automation\True_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEA84C-968B-499F-88AA-705F583419E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1ACDB-E6EC-46CE-856A-8BCB0B8651B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="210" windowWidth="28740" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>站名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>创力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C95C9B-7938-4892-A3E0-60744409E85E}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +752,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>31</v>
@@ -932,14 +936,14 @@
       <c r="F13" s="4">
         <v>666</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
+      <c r="G13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J13" s="4">
         <v>38007</v>
